--- a/data/trans_dic/P16A_n_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2186522980734207</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2931832363583311</v>
+        <v>0.293183236358331</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1356573282792776</v>
+        <v>0.1323038620877675</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1734207528923303</v>
+        <v>0.1726737615598387</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1808410848585484</v>
+        <v>0.1775809587508587</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2424243257172665</v>
+        <v>0.2418096583320367</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1823101209768978</v>
+        <v>0.1850082580993908</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1976523655572237</v>
+        <v>0.2023280041074917</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1727537714708988</v>
+        <v>0.1747026933963592</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2739928812065585</v>
+        <v>0.2757938621850921</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1654109567350646</v>
+        <v>0.164043653999566</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1917654420036603</v>
+        <v>0.1942499182960771</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1910006532667152</v>
+        <v>0.190009500528518</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2676868092648703</v>
+        <v>0.2673135728965759</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2047898939045203</v>
+        <v>0.2038060729209096</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2606579700948531</v>
+        <v>0.2574891873209096</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2651797974141986</v>
+        <v>0.2620893689860543</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.317778007388177</v>
+        <v>0.3174702858151167</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2793650013683142</v>
+        <v>0.2795654843944533</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2993718236891693</v>
+        <v>0.3010213216915983</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2667663397791434</v>
+        <v>0.2685421109210379</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.346279546875923</v>
+        <v>0.3422827540722496</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2233107950537077</v>
+        <v>0.2188765818573365</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2582989415224258</v>
+        <v>0.2611526539901011</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2492388432195872</v>
+        <v>0.249436378447622</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3195762500398768</v>
+        <v>0.3199220208418867</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.107212872817944</v>
+        <v>0.1071187719326304</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1720851745629171</v>
+        <v>0.1716812260271482</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.182332754260572</v>
+        <v>0.1831325860025636</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2301932335996966</v>
+        <v>0.2319482100279059</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1856059247899809</v>
+        <v>0.190330925153179</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2349685794615489</v>
+        <v>0.2345196600482164</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1998918777879666</v>
+        <v>0.2037034552124848</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2830987165493561</v>
+        <v>0.2893540478705569</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1591743933952111</v>
+        <v>0.1604730070835581</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2100048137529645</v>
+        <v>0.2100656237923255</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2020406875307829</v>
+        <v>0.2027212024265246</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2675816947494958</v>
+        <v>0.2678545733392193</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1813475714090219</v>
+        <v>0.1819393914740425</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2576953194073989</v>
+        <v>0.258298693787043</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.274566530928111</v>
+        <v>0.2746628339526663</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3096506737630692</v>
+        <v>0.3112806982212206</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2764570281528365</v>
+        <v>0.2775196196986371</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3401395012633275</v>
+        <v>0.3386768106162419</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2941238851721522</v>
+        <v>0.2926905086887472</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3618056284939562</v>
+        <v>0.3668620163958541</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2174441981453549</v>
+        <v>0.2157208494534594</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2761974418413317</v>
+        <v>0.2784739834542628</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2657363340295182</v>
+        <v>0.2714147908896227</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3217769141562784</v>
+        <v>0.3227113525177085</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3918470329006098</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5134682758716935</v>
+        <v>0.5134682758716934</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1951639156682268</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1430440862066748</v>
+        <v>0.1432048379100428</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2709543825728604</v>
+        <v>0.2679836567520923</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.221817416210644</v>
+        <v>0.2203848248961771</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2806144730583101</v>
+        <v>0.2818706584148529</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2021995436405123</v>
+        <v>0.1964787542713418</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3179810689141833</v>
+        <v>0.317103532642668</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3158433961115263</v>
+        <v>0.3161847601183154</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4533821523438109</v>
+        <v>0.4629946498387243</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1675642992956966</v>
+        <v>0.1676190673618906</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.295745447412865</v>
+        <v>0.2943550807428598</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2573627489196991</v>
+        <v>0.2557097313533291</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3420136345715534</v>
+        <v>0.3411506743637354</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2072052088317707</v>
+        <v>0.2060103535751</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.346428585819674</v>
+        <v>0.3471004059891661</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2958955071043289</v>
+        <v>0.2971830995348412</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.364054298578281</v>
+        <v>0.3650534832755502</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3404408526639474</v>
+        <v>0.3392147362376687</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4365719210152219</v>
+        <v>0.437830845813946</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4703677426770795</v>
+        <v>0.4792993841859559</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.574790184221232</v>
+        <v>0.5741217254448703</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2287032499917832</v>
+        <v>0.227143035901415</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.362053053549702</v>
+        <v>0.3607303704574402</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3238520860751303</v>
+        <v>0.3275231211867368</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4105675064470917</v>
+        <v>0.4142444585668477</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2585231166374545</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3610857144530177</v>
+        <v>0.3610857144530178</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1933024626142137</v>
+        <v>0.1937161043384502</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2631676363044709</v>
+        <v>0.2642410410314932</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2240991242893811</v>
+        <v>0.2250568606318793</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3173573641658544</v>
+        <v>0.3177111524535031</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2295227439349707</v>
+        <v>0.2292123233036065</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3021675936318833</v>
+        <v>0.3014350991356073</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2417646667808172</v>
+        <v>0.2428139818035453</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3546528528896143</v>
+        <v>0.3551109852678347</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2139859001227043</v>
+        <v>0.2153442776861524</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2869596261380102</v>
+        <v>0.2856772833535918</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2396713026157541</v>
+        <v>0.2400384019524597</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3395358821873916</v>
+        <v>0.3396983356351749</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2391027323091743</v>
+        <v>0.2388430861107535</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3194522107416349</v>
+        <v>0.320708691321474</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2750880161171944</v>
+        <v>0.2778328548525072</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3741601455831283</v>
+        <v>0.3759394910216681</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.294479396427019</v>
+        <v>0.2929485282977123</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3743829306723643</v>
+        <v>0.3739130705355629</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3053017638641041</v>
+        <v>0.302577707350719</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4116149327741883</v>
+        <v>0.4110045743949655</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2522382269677802</v>
+        <v>0.2529402284809175</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3286229113899576</v>
+        <v>0.3290199498934671</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2808818012964145</v>
+        <v>0.2799321623319773</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3813202326417667</v>
+        <v>0.38382000533402</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.3396275802044873</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.4116198253931905</v>
+        <v>0.4116198253931904</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1391631544284248</v>
+        <v>0.1387442278305108</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2223503894568645</v>
+        <v>0.2227196553249389</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2249894740058611</v>
+        <v>0.2209012544575917</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2728641927896225</v>
+        <v>0.274382517913737</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2502241540622173</v>
+        <v>0.2514828107512567</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4314194885461363</v>
+        <v>0.432101650249349</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3765187380190079</v>
+        <v>0.3766386929916156</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.452769099324091</v>
+        <v>0.449975713690391</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2185650594318718</v>
+        <v>0.219723865215103</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3559855713652879</v>
+        <v>0.3559327170582264</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3135244463258159</v>
+        <v>0.3126154916521043</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3861894243755832</v>
+        <v>0.3889069578068489</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2136490981898932</v>
+        <v>0.2184901157909216</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3013617022018575</v>
+        <v>0.3015564362704538</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.291231704763205</v>
+        <v>0.2926966544387421</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3564583678267476</v>
+        <v>0.3563692658734413</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3252628447341732</v>
+        <v>0.3326860373962109</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5057601295356946</v>
+        <v>0.5054042512729316</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4473385703493424</v>
+        <v>0.4486837799785512</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5093131530098127</v>
+        <v>0.5082578494747846</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2752942984219048</v>
+        <v>0.2749569405896483</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4092861215030006</v>
+        <v>0.4127822585647047</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3674557126672603</v>
+        <v>0.3645921997191897</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.436357256010285</v>
+        <v>0.4344358537976093</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.3556266170957267</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3539682849156481</v>
+        <v>0.353968284915648</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03132636510533114</v>
+        <v>0.0335850503683771</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04680253626736187</v>
+        <v>0.04757186622071394</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04281231166341024</v>
+        <v>0.04112569661781156</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05387167268882032</v>
+        <v>0.05875660988420394</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3361340612721794</v>
+        <v>0.3356307377783221</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4549387648724599</v>
+        <v>0.4541451346058425</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4033649611364648</v>
+        <v>0.3995871050635332</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3925197161118076</v>
+        <v>0.3936413827490434</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2828189841753597</v>
+        <v>0.280985024403879</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3761135148783591</v>
+        <v>0.3773886484806058</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3289409996448717</v>
+        <v>0.3282062872176484</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3260192919658686</v>
+        <v>0.3261735889108947</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08621944485943622</v>
+        <v>0.09056851707274234</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1181245675874982</v>
+        <v>0.1196951316337529</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1034543846478325</v>
+        <v>0.103870166642541</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1693856256020161</v>
+        <v>0.1769120809887091</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3928799917430506</v>
+        <v>0.3891203688388873</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5151361685877057</v>
+        <v>0.5157874847357865</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4649186659198487</v>
+        <v>0.4655642359711251</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4553152791417093</v>
+        <v>0.4572460982389875</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3284524884350113</v>
+        <v>0.3272792719601547</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4300704710791727</v>
+        <v>0.4301023779355966</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.381085139012713</v>
+        <v>0.3842870200099285</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.384641163931018</v>
+        <v>0.3850494159332116</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1614480497256643</v>
+        <v>0.1615186206496864</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.236850447065253</v>
+        <v>0.2364514546305753</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2158475814081573</v>
+        <v>0.2162774245002379</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2829944419193035</v>
+        <v>0.2822764866727376</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2841615667006767</v>
+        <v>0.2841420143439066</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3831784635342598</v>
+        <v>0.3840484049687655</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3297847967553775</v>
+        <v>0.3315276869583832</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3904213011362928</v>
+        <v>0.3909319336280019</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2267180681027111</v>
+        <v>0.227701396201452</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3145026632309183</v>
+        <v>0.3157662732192103</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2789055639990213</v>
+        <v>0.2786467588734303</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3415951258396496</v>
+        <v>0.3426610698861132</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1876257729786886</v>
+        <v>0.1866990249607098</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.267297681985584</v>
+        <v>0.2688633393491299</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2436410777467602</v>
+        <v>0.2459338262975127</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3150957314614143</v>
+        <v>0.3149246637329605</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3139424754545824</v>
+        <v>0.314397087208232</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4171438495944606</v>
+        <v>0.4168789669723612</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3632009269703865</v>
+        <v>0.3634178855311124</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4186127411973278</v>
+        <v>0.4178362967709157</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2481124081556648</v>
+        <v>0.2466919342171588</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3383635120365918</v>
+        <v>0.3395404507383451</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3014915619084063</v>
+        <v>0.3016458166950009</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3629332662380105</v>
+        <v>0.3645305425063934</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>64271</v>
+        <v>62682</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>75821</v>
+        <v>75495</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>77597</v>
+        <v>76199</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>133483</v>
+        <v>133145</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>55911</v>
+        <v>56738</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>62153</v>
+        <v>63623</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>59955</v>
+        <v>60631</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>133821</v>
+        <v>134701</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>129096</v>
+        <v>128029</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>144143</v>
+        <v>146011</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>148245</v>
+        <v>147475</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>278134</v>
+        <v>277747</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>97025</v>
+        <v>96558</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>113963</v>
+        <v>112577</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>113787</v>
+        <v>112460</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>174974</v>
+        <v>174805</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>85676</v>
+        <v>85737</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>94139</v>
+        <v>94657</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>92583</v>
+        <v>93199</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>169127</v>
+        <v>167175</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>174284</v>
+        <v>170824</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>194154</v>
+        <v>196299</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>193446</v>
+        <v>193599</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>332049</v>
+        <v>332408</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>39340</v>
+        <v>39306</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>72069</v>
+        <v>71900</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>68781</v>
+        <v>69083</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>111232</v>
+        <v>112080</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>69020</v>
+        <v>70777</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>79422</v>
+        <v>79270</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>74414</v>
+        <v>75833</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>119791</v>
+        <v>122438</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>117598</v>
+        <v>118557</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>158933</v>
+        <v>158979</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>151429</v>
+        <v>151940</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>242524</v>
+        <v>242771</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>66543</v>
+        <v>66760</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>107922</v>
+        <v>108175</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>103574</v>
+        <v>103610</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>149627</v>
+        <v>150415</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>102805</v>
+        <v>103200</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>114971</v>
+        <v>114476</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>109494</v>
+        <v>108961</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>153096</v>
+        <v>155235</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>160648</v>
+        <v>159374</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>209028</v>
+        <v>210751</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>199169</v>
+        <v>203425</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>291644</v>
+        <v>292491</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>77586</v>
+        <v>77673</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>170543</v>
+        <v>168673</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>115770</v>
+        <v>115022</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>132341</v>
+        <v>132934</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>33925</v>
+        <v>32966</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>82716</v>
+        <v>82488</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>52469</v>
+        <v>52526</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>85008</v>
+        <v>86810</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>118999</v>
+        <v>119038</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>263079</v>
+        <v>261842</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>177075</v>
+        <v>175938</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>225424</v>
+        <v>224855</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>112386</v>
+        <v>111738</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>218047</v>
+        <v>218470</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>154432</v>
+        <v>155104</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>171692</v>
+        <v>172164</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>57120</v>
+        <v>56914</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>113565</v>
+        <v>113893</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>78139</v>
+        <v>79623</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>107771</v>
+        <v>107646</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>162418</v>
+        <v>161310</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>322062</v>
+        <v>320886</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>222822</v>
+        <v>225348</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>270609</v>
+        <v>273032</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>239373</v>
+        <v>239885</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>305014</v>
+        <v>306258</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>257633</v>
+        <v>258734</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>359199</v>
+        <v>359599</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>163945</v>
+        <v>163723</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>231659</v>
+        <v>231097</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>199668</v>
+        <v>200534</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>305431</v>
+        <v>305825</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>417833</v>
+        <v>420486</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>552589</v>
+        <v>550119</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>473474</v>
+        <v>474199</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>676713</v>
+        <v>677037</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>296089</v>
+        <v>295768</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>370248</v>
+        <v>371704</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>316252</v>
+        <v>319407</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>423491</v>
+        <v>425504</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>210342</v>
+        <v>209249</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>287023</v>
+        <v>286663</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>252141</v>
+        <v>249892</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>354487</v>
+        <v>353962</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>492525</v>
+        <v>493896</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>632818</v>
+        <v>633583</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>554886</v>
+        <v>553010</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>759992</v>
+        <v>764974</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>48784</v>
+        <v>48637</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>113531</v>
+        <v>113720</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>139652</v>
+        <v>137115</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>154977</v>
+        <v>155839</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>142315</v>
+        <v>143031</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>328535</v>
+        <v>329055</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>277963</v>
+        <v>278051</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>376183</v>
+        <v>373862</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>200928</v>
+        <v>201994</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>452856</v>
+        <v>452788</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>426064</v>
+        <v>424829</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>540207</v>
+        <v>544008</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>74896</v>
+        <v>76593</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>153874</v>
+        <v>153974</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>180769</v>
+        <v>181679</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>202456</v>
+        <v>202405</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>184994</v>
+        <v>189216</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>385147</v>
+        <v>384876</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>330245</v>
+        <v>331238</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>423163</v>
+        <v>422286</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>253080</v>
+        <v>252770</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>520660</v>
+        <v>525108</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>499354</v>
+        <v>495463</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>610383</v>
+        <v>607695</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9342</v>
+        <v>10015</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>12491</v>
+        <v>12696</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>12293</v>
+        <v>11809</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>12780</v>
+        <v>13939</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>419751</v>
+        <v>419122</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>504687</v>
+        <v>503806</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>436451</v>
+        <v>432363</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>331397</v>
+        <v>332344</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>437510</v>
+        <v>434673</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>517620</v>
+        <v>519375</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>450376</v>
+        <v>449370</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>352593</v>
+        <v>352760</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>25711</v>
+        <v>27008</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>31525</v>
+        <v>31944</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>29706</v>
+        <v>29826</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>40183</v>
+        <v>41968</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>490613</v>
+        <v>485918</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>571467</v>
+        <v>572189</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>503054</v>
+        <v>503752</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>384414</v>
+        <v>386044</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>508103</v>
+        <v>506288</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>591877</v>
+        <v>591921</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>521770</v>
+        <v>526154</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>415993</v>
+        <v>416434</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>527966</v>
+        <v>528197</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>810481</v>
+        <v>809116</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>730800</v>
+        <v>732255</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>974202</v>
+        <v>971730</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>959933</v>
+        <v>959867</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1360331</v>
+        <v>1363420</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1164667</v>
+        <v>1170822</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1419335</v>
+        <v>1421191</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1507293</v>
+        <v>1513830</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>2192724</v>
+        <v>2201534</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1929278</v>
+        <v>1927488</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>2417766</v>
+        <v>2425310</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>613572</v>
+        <v>610541</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>914669</v>
+        <v>920026</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>824901</v>
+        <v>832664</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1084709</v>
+        <v>1084121</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1060537</v>
+        <v>1062072</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1480913</v>
+        <v>1479972</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1282679</v>
+        <v>1283445</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1521822</v>
+        <v>1518999</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1649529</v>
+        <v>1640085</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>2359082</v>
+        <v>2367288</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>2085513</v>
+        <v>2086580</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>2568794</v>
+        <v>2580099</v>
       </c>
     </row>
     <row r="32">
